--- a/biology/Médecine/Reham_Awwad/Reham_Awwad.xlsx
+++ b/biology/Médecine/Reham_Awwad/Reham_Awwad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Reham Awwad est un médecin égyptien. Elle est la première femme chirurgien esthétique et de reconstruction du Maghreb. Ayant consacré sa thèse à l' excision, elle se décide de réparer les femmes victimes du phénomène en Egypte.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Reham Awwad, est diplômée de la Gulf Medical University en 2008 aux Émirats arabes unis et a commencé sa formation à l'hôpital IMC de Djeddah, en Arabie saoudite, en chirurgie esthétique et reconstructive. Elle a ensuite suivi un programme de formation en attachement chirurgical au Presbyterian/Weill Cornell Medical Center à New York, aux États-Unis, et a participé à certains programmes de recherche. Reham Awwad a consacré sa thèse de maîtrise en chirurgie à l'hôpital universitaire Kasr El Aini du Caire. Elle a été formée aux procédures liées à la gynécologie esthétique et poursuit actuellement son travail avec le Dr Amr AboAlyazid dans le domaine de la gynécologie esthétique et de la santé sexuelle[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reham Awwad, est diplômée de la Gulf Medical University en 2008 aux Émirats arabes unis et a commencé sa formation à l'hôpital IMC de Djeddah, en Arabie saoudite, en chirurgie esthétique et reconstructive. Elle a ensuite suivi un programme de formation en attachement chirurgical au Presbyterian/Weill Cornell Medical Center à New York, aux États-Unis, et a participé à certains programmes de recherche. Reham Awwad a consacré sa thèse de maîtrise en chirurgie à l'hôpital universitaire Kasr El Aini du Caire. Elle a été formée aux procédures liées à la gynécologie esthétique et poursuit actuellement son travail avec le Dr Amr AboAlyazid dans le domaine de la gynécologie esthétique et de la santé sexuelle.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Militantisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Reham a fait équipe avec le Dr Amr Seif Eldin et a lancé "Restore FGM", qui peut également être considéré comme une lueur d'espoir pour les femmes de la région du Moyen-Orient et de l'Afrique du Nord. Il s'agit d'un centre de traitement multidisciplinaire pour les survivantes de mutilations génitales féminines en Égypte et au Moyen-Orient. Le centre fournit des soins médicaux, des opérations chirurgicales et un traitement psychologique aux patientes, ce qui accélère leur processus de guérison[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reham a fait équipe avec le Dr Amr Seif Eldin et a lancé "Restore FGM", qui peut également être considéré comme une lueur d'espoir pour les femmes de la région du Moyen-Orient et de l'Afrique du Nord. Il s'agit d'un centre de traitement multidisciplinaire pour les survivantes de mutilations génitales féminines en Égypte et au Moyen-Orient. Le centre fournit des soins médicaux, des opérations chirurgicales et un traitement psychologique aux patientes, ce qui accélère leur processus de guérison,.
 </t>
         </is>
       </c>
